--- a/5-Results/density/graph-settting.xlsx
+++ b/5-Results/density/graph-settting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SugiyamaLab\Desktop\MasterThesis\5-Results\density\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E62AA8D-5D9D-4C8F-9101-0C548F6B624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE0468-F4F5-4EC5-A513-18010E9DF3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EEE4CC4E-F6A7-48AA-8D54-A1D6BE000572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EEE4CC4E-F6A7-48AA-8D54-A1D6BE000572}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,35 +405,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B13E5D-F387-4D55-9706-C77BB064B0FD}">
-  <dimension ref="B1:L3"/>
+  <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D1">
-        <f>C1*7</f>
-        <v>0.105</v>
+        <f>C1*4</f>
+        <v>0.08</v>
       </c>
       <c r="E1">
-        <f>1-D1</f>
-        <v>0.89500000000000002</v>
+        <f>0.85-D1</f>
+        <v>0.77</v>
       </c>
       <c r="F1">
-        <f>E1/6</f>
-        <v>0.14916666666666667</v>
+        <f>E1/3</f>
+        <v>0.25666666666666665</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -460,67 +460,35 @@
         <f t="shared" si="0"/>
         <v>margin</v>
       </c>
-      <c r="I2" t="str">
-        <f t="shared" si="0"/>
-        <v>graph</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" si="0"/>
-        <v>margin</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" si="0"/>
-        <v>graph</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" si="0"/>
-        <v>margin</v>
-      </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3">
         <f>C1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C3">
         <f>B3+$F$1</f>
-        <v>0.16416666666666668</v>
+        <v>0.27666666666666667</v>
       </c>
       <c r="D3">
         <f>C3+$C$1</f>
-        <v>0.1791666666666667</v>
+        <v>0.29666666666666669</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:L3" si="1">D3+$F$1</f>
-        <v>0.32833333333333337</v>
+        <f t="shared" ref="E3" si="1">D3+$F$1</f>
+        <v>0.55333333333333334</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:L3" si="2">E3+$C$1</f>
-        <v>0.34333333333333338</v>
+        <f t="shared" ref="F3" si="2">E3+$C$1</f>
+        <v>0.57333333333333336</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:L3" si="3">F3+$F$1</f>
-        <v>0.49250000000000005</v>
+        <f t="shared" ref="G3" si="3">F3+$F$1</f>
+        <v>0.83000000000000007</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:L3" si="4">G3+$C$1</f>
-        <v>0.50750000000000006</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:L3" si="5">H3+$F$1</f>
-        <v>0.65666666666666673</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:L3" si="6">I3+$C$1</f>
-        <v>0.67166666666666675</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:L3" si="7">J3+$F$1</f>
-        <v>0.82083333333333341</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3" si="8">K3+$C$1</f>
-        <v>0.83583333333333343</v>
+        <f t="shared" ref="H3" si="4">G3+$C$1</f>
+        <v>0.85000000000000009</v>
       </c>
     </row>
   </sheetData>
